--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_183.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_183.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.100000', '0:00:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3355263157894737</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G', 'C', 'D', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E', 'A', 'D']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(50.506553, 63.382018)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.366281, 20.172902)]</t>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[('0:00:09.620000', '0:00:14.180000'), ('0:00:01.880000', '0:00:06.560000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:11.700000', '0:00:20.020000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[('0:00:35.220000', '0:00:42.420000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:01:48.280000', '0:02:00.520000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.88, 21.16)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:08.200000', '0:00:23.600000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:02.980000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7483552631578947</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[('0:03:16.576000', '0:04:06.376000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1302083333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D'], ['C', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['D/3', 'D', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(59.224321, 65.737518), (23.117291, 29.711758)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(92.74687, 96.589773), (92.073492, 95.022426)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(24.64, 36.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(53.46, 63.98)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
